--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
   <si>
-    <t xml:space="preserve">Requirements inspection</t>
+    <t xml:space="preserve">Requirements inspection: 30min</t>
   </si>
   <si>
     <t xml:space="preserve">Nr</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Nu este specificat GUI / consola</t>
   </si>
   <si>
-    <t xml:space="preserve">Architectural inspection</t>
+    <t xml:space="preserve">Architectural inspection: 45 min</t>
   </si>
   <si>
     <t xml:space="preserve">A01</t>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Are the key entity classes and their relationship consistent with the business model (if it exists), domain model (if it exists), requirements?</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding inspection</t>
+    <t xml:space="preserve">Coding inspection: 1:20h</t>
   </si>
   <si>
     <t xml:space="preserve">C01</t>
@@ -517,7 +517,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Tool inspection</t>
+    <t xml:space="preserve">Tool inspection: 50 min</t>
   </si>
   <si>
     <t xml:space="preserve">Location</t>
@@ -810,184 +810,156 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1116,8 +1088,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B21" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1375,44 +1347,44 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="14" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1427,16 +1399,16 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1444,10 +1416,10 @@
       <c r="B29" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="16" t="s">
@@ -1461,7 +1433,7 @@
       <c r="C30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="17" t="s">
@@ -1475,10 +1447,10 @@
       <c r="C31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="30" t="s">
+      <c r="D31" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="28" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1489,7 +1461,7 @@
       <c r="C32" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="17" t="s">
@@ -1503,7 +1475,7 @@
       <c r="C33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="17" t="s">
@@ -1517,10 +1489,10 @@
       <c r="C34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="30" t="s">
+      <c r="D34" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1531,7 +1503,7 @@
       <c r="C35" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="17" t="s">
@@ -1539,68 +1511,68 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="34" t="s">
+      <c r="D36" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="28" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="34"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="29"/>
     </row>
     <row r="40" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="38" t="s">
+      <c r="D40" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="31" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1612,27 +1584,27 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
     </row>
     <row r="44" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1643,10 +1615,10 @@
       <c r="B45" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="26" t="s">
         <v>7</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -1663,10 +1635,10 @@
       <c r="B46" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="5" t="s">
@@ -1683,16 +1655,16 @@
       <c r="B47" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="41" t="s">
+      <c r="F47" s="35" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1703,10 +1675,10 @@
       <c r="B48" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -1723,10 +1695,10 @@
       <c r="B49" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D49" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -1743,16 +1715,16 @@
       <c r="B50" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="41" t="s">
+      <c r="D50" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="41" t="s">
+      <c r="F50" s="35" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1763,16 +1735,16 @@
       <c r="B51" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="27" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="34" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1781,36 +1753,36 @@
       <c r="B52" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="44" t="s">
+      <c r="D52" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="37" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
     </row>
     <row r="54" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="0"/>
-      <c r="C54" s="0"/>
-      <c r="D54" s="0"/>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
     </row>
     <row r="55" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="0"/>
+      <c r="F55" s="32"/>
     </row>
     <row r="59" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
